--- a/pthread_data.xlsx
+++ b/pthread_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023大二下\并行实验\pthread\Pthread-openMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E1D002-5A7B-48EC-83AA-79923C9B0B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85355B7-820E-4BAB-ACC1-F9AB58E575F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{F2545970-A067-4E01-A954-AD9428FABF1B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>thread num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,12 +123,45 @@
     <t>pthread_cache</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">  PID  SPID TTY          TIME CMD</t>
+  </si>
+  <si>
+    <t>69218 69218 pts/16   00:00:02 pthread10000</t>
+  </si>
+  <si>
+    <t>69218 69237 pts/16   00:00:56 pthread10000</t>
+  </si>
+  <si>
+    <t>69218 69238 pts/16   00:00:59 pthread10000</t>
+  </si>
+  <si>
+    <t>69218 69239 pts/16   00:00:59 pthread10000</t>
+  </si>
+  <si>
+    <t>69218 69240 pts/16   00:01:01 pthread10000</t>
+  </si>
+  <si>
+    <t>划分方法</t>
+  </si>
+  <si>
+    <t>线程数</t>
+  </si>
+  <si>
+    <t>时间消耗（秒）</t>
+  </si>
+  <si>
+    <t>水平划分</t>
+  </si>
+  <si>
+    <t>垂直划分</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,21 +192,91 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FFECECEC"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FFECECEC"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF212121"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -185,7 +288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,6 +297,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6851,10 +6966,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D638C033-7DEC-44C6-9F96-1CDD327AE7E9}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AP21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AT13" sqref="AT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6865,10 +6980,13 @@
     <col min="8" max="8" width="14.25" customWidth="1"/>
     <col min="10" max="10" width="18.75" customWidth="1"/>
     <col min="15" max="15" width="41.33203125" customWidth="1"/>
+    <col min="25" max="25" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14.4140625" customWidth="1"/>
+    <col min="31" max="31" width="54.4140625" customWidth="1"/>
+    <col min="32" max="32" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6927,7 +7045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6993,7 +7111,7 @@
         <v>1.5430000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>4</v>
       </c>
@@ -7055,8 +7173,35 @@
       <c r="AA3">
         <v>4.9709999999999997E-3</v>
       </c>
+      <c r="AH3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5</v>
       </c>
@@ -7118,8 +7263,35 @@
       <c r="AA4">
         <v>1.7177999999999999E-2</v>
       </c>
+      <c r="AH4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="6">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6</v>
       </c>
@@ -7181,8 +7353,29 @@
       <c r="AA5">
         <v>4.5790999999999998E-2</v>
       </c>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AM5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AP5" s="6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7</v>
       </c>
@@ -7244,8 +7437,29 @@
       <c r="AA6">
         <v>7.7701000000000006E-2</v>
       </c>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5">
+        <v>8</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5">
+        <v>8</v>
+      </c>
+      <c r="AM6" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5">
+        <v>8</v>
+      </c>
+      <c r="AP6" s="6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>8</v>
       </c>
@@ -7307,8 +7521,35 @@
       <c r="AA7">
         <v>0.13223299999999999</v>
       </c>
+      <c r="AH7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM7" s="6">
+        <v>4</v>
+      </c>
+      <c r="AN7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO7" s="5">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="6">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>9</v>
       </c>
@@ -7370,8 +7611,32 @@
       <c r="AA8">
         <v>0.239454</v>
       </c>
+      <c r="AE8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AM8" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AP8" s="6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>10</v>
       </c>
@@ -7433,8 +7698,32 @@
       <c r="AA9">
         <v>0.35306300000000002</v>
       </c>
+      <c r="AE9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5">
+        <v>8</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5">
+        <v>8</v>
+      </c>
+      <c r="AM9" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5">
+        <v>8</v>
+      </c>
+      <c r="AP9" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11</v>
       </c>
@@ -7496,8 +7785,11 @@
       <c r="AA10">
         <v>0.53159199999999995</v>
       </c>
+      <c r="AE10" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
@@ -7556,8 +7848,11 @@
       <c r="AA11">
         <v>0.702843</v>
       </c>
+      <c r="AE11" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>13</v>
       </c>
@@ -7592,8 +7887,11 @@
       <c r="K12">
         <v>2.2999999999999998</v>
       </c>
+      <c r="AE12" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -7616,8 +7914,11 @@
         <f t="shared" si="3"/>
         <v>3.2553929857512265E-3</v>
       </c>
+      <c r="AE13" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>50</v>
       </c>
@@ -7641,7 +7942,7 @@
         <v>9.2364612781865862E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>100</v>
       </c>
@@ -7665,7 +7966,7 @@
         <v>1.0217424024537675E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>200</v>
       </c>
